--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Capstone\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA48376-5F59-4B7B-84D9-8AB3B949BEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D7E17-95E1-4017-A0D3-3777D3EC6307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Milestones" sheetId="1" r:id="rId1"/>
+    <sheet name="Milestones at risk" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>IPP Presentation</t>
   </si>
@@ -222,6 +223,39 @@
   </si>
   <si>
     <t>S2, Week 6</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
   </si>
 </sst>
 </file>
@@ -406,17 +440,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -444,6 +474,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,7 +880,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -853,39 +895,39 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1"/>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -894,22 +936,22 @@
       <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>1.2</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -918,20 +960,22 @@
       <c r="F4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="C5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="28" t="s">
@@ -940,22 +984,22 @@
       <c r="F5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>1.3</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
@@ -964,20 +1008,22 @@
       <c r="F6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="C7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -986,20 +1032,22 @@
       <c r="F7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -1008,20 +1056,22 @@
       <c r="F8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B9" s="31"/>
+      <c r="B9" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -1030,22 +1080,22 @@
       <c r="F9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>2.1</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -1054,22 +1104,22 @@
       <c r="F10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="17">
+      <c r="B11" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -1078,22 +1128,22 @@
       <c r="F11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B12" s="17">
+      <c r="B12" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -1102,20 +1152,22 @@
       <c r="F12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="29" t="s">
@@ -1124,20 +1176,22 @@
       <c r="F13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -1146,20 +1200,22 @@
       <c r="F14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="40"/>
+      <c r="B15" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="C15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -1168,20 +1224,22 @@
       <c r="F15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -1190,20 +1248,22 @@
       <c r="F16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B17" s="31"/>
+      <c r="B17" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="C17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -1212,22 +1272,22 @@
       <c r="F17" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>3.1</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -1236,22 +1296,22 @@
       <c r="F18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>3.2</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -1260,22 +1320,22 @@
       <c r="F19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>3.3</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -1284,20 +1344,22 @@
       <c r="F20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -1306,13 +1368,13 @@
       <c r="F21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="42">
@@ -1321,7 +1383,7 @@
       <c r="C22" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -1330,13 +1392,33 @@
       <c r="F22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F44DBF-4BDD-4EB1-A1E7-11D09DB80807}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Capstone\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D7E17-95E1-4017-A0D3-3777D3EC6307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B448C7-6D2E-42A1-B309-9CE63D3BFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>IPP Presentation</t>
   </si>
@@ -156,9 +159,6 @@
     <t>Sebastien C-B</t>
   </si>
   <si>
-    <t>Pilot N/A</t>
-  </si>
-  <si>
     <t>incomplete</t>
   </si>
   <si>
@@ -256,6 +256,24 @@
   </si>
   <si>
     <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Risk Register Progress</t>
+  </si>
+  <si>
+    <t>Signed Off</t>
+  </si>
+  <si>
+    <t>4.1.0</t>
+  </si>
+  <si>
+    <t>Sebastien CB</t>
+  </si>
+  <si>
+    <t>Thomas Jakeman</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -294,7 +312,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +343,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -431,11 +461,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +698,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +735,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF0F0F0"/>
+      <color rgb="FFF5F9FD"/>
+      <color rgb="FFD3D3D3"/>
       <color rgb="FFDCDCDC"/>
-      <color rgb="FFD3D3D3"/>
       <color rgb="FFFDFDFD"/>
       <color rgb="FFF7F7F7"/>
     </mruColors>
@@ -880,7 +1074,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -899,25 +1093,25 @@
         <v>44</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -925,19 +1119,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>40</v>
@@ -949,19 +1143,19 @@
         <v>1.2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>40</v>
@@ -973,19 +1167,19 @@
         <v>63</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>40</v>
@@ -997,19 +1191,19 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>40</v>
@@ -1021,19 +1215,19 @@
         <v>64</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>40</v>
@@ -1045,19 +1239,19 @@
         <v>65</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>40</v>
@@ -1069,19 +1263,19 @@
         <v>66</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>40</v>
@@ -1093,19 +1287,19 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>40</v>
@@ -1117,19 +1311,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>40</v>
@@ -1141,19 +1335,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>40</v>
@@ -1165,19 +1359,19 @@
         <v>67</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>40</v>
@@ -1189,19 +1383,19 @@
         <v>68</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>40</v>
@@ -1213,19 +1407,19 @@
         <v>69</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>40</v>
@@ -1237,19 +1431,19 @@
         <v>70</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>40</v>
@@ -1261,19 +1455,19 @@
         <v>71</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>40</v>
@@ -1285,19 +1479,19 @@
         <v>3.1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>40</v>
@@ -1309,19 +1503,19 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>40</v>
@@ -1333,19 +1527,19 @@
         <v>3.3</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>40</v>
@@ -1357,19 +1551,19 @@
         <v>72</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>40</v>
@@ -1381,13 +1575,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>52</v>
@@ -1407,18 +1601,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F44DBF-4BDD-4EB1-A1E7-11D09DB80807}">
-  <dimension ref="B4"/>
+  <dimension ref="B4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="4" spans="2:6" ht="15" thickBot="1"/>
+    <row r="5" spans="2:6" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B5" s="46" t="s">
         <v>62</v>
       </c>
+      <c r="C5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15">
+      <c r="B6" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="2:6" ht="15">
+      <c r="B7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="2:6" ht="15">
+      <c r="B8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="2:6" ht="15">
+      <c r="B9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="2:6" ht="15">
+      <c r="B10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Capstone\Administration\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\university work\Year 4\Master Projects\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B448C7-6D2E-42A1-B309-9CE63D3BFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA8834-96EB-4F05-918D-EBF5BB637D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="1" r:id="rId1"/>
     <sheet name="Milestones at risk" sheetId="2" r:id="rId2"/>
+    <sheet name="Risk Register" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -274,22 +275,77 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date raised </t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Contingency plan</t>
+  </si>
+  <si>
+    <t>Risk Description</t>
+  </si>
+  <si>
+    <t>Illness of team member</t>
+  </si>
+  <si>
+    <t>Mentor weekly inavailability</t>
+  </si>
+  <si>
+    <t>Team member timetable clash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Manufacturing error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed off by </t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Project files save Corruption/overwrite</t>
+  </si>
+  <si>
+    <t>Have muliple backups of main repository</t>
+  </si>
+  <si>
+    <t>Team member Injury</t>
+  </si>
+  <si>
+    <t>don’t be clumsy you silly bitch</t>
+  </si>
+  <si>
+    <t>HHTC room avialability</t>
+  </si>
+  <si>
+    <t>3D Printing Availability</t>
+  </si>
+  <si>
+    <t>Get required 3D printing CAD drawings completed early</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -311,19 +367,19 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,30 +389,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
+        <fgColor rgb="FFDAE9F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F9FD"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -387,17 +455,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -407,101 +464,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -510,25 +479,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -540,22 +494,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -567,28 +521,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -598,135 +620,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,6 +757,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDAE9F8"/>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFF2F2F2"/>
       <color rgb="FFF0F0F0"/>
       <color rgb="FFF5F9FD"/>
       <color rgb="FFD3D3D3"/>
@@ -1073,526 +1098,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB687DE-7B59-445C-B2C7-8E146C5C6618}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="9" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="13">
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="13">
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>1.2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="28" t="s">
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="13">
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>1.3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="29" t="s">
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B9" s="31" t="s">
+      <c r="H8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B10" s="13">
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>2.1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="13">
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B12" s="13">
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="29" t="s">
+      <c r="H12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="30" t="s">
+      <c r="H13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="40" t="s">
+      <c r="H14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="41" t="s">
+      <c r="H15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B17" s="31" t="s">
+      <c r="H16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="13">
+      <c r="H17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>3.1</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="13">
+      <c r="H18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>3.2</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B20" s="13">
+      <c r="H19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>3.3</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="39" t="s">
+      <c r="H20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="42">
+      <c r="H21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="16"/>
+      <c r="H22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,124 +1629,356 @@
   <dimension ref="B4:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15" thickBot="1"/>
-    <row r="5" spans="2:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B5" s="46" t="s">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15">
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="2:6" ht="15">
-      <c r="B7" s="53" t="s">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="2:6" ht="15">
-      <c r="B8" s="53" t="s">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="2:6" ht="15">
-      <c r="B9" s="53" t="s">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="2:6" ht="15">
-      <c r="B10" s="53" t="s">
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B11" s="55" t="s">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B009BBA-9CF0-42B9-8B30-C2F0D833DC46}">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="45">
+        <v>45576</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="48">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="48">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="46">
+        <v>45576</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="49">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="46">
+        <v>45576</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="49">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="46">
+        <v>45576</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="50">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="46">
+        <v>45576</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="51">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="51">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="51">
+        <v>32</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\university work\Year 4\Master Projects\Administration\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Capstone\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA8834-96EB-4F05-918D-EBF5BB637D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45806FA2-A4B8-479D-868B-E3A840D7A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="1" r:id="rId1"/>
-    <sheet name="Milestones at risk" sheetId="2" r:id="rId2"/>
-    <sheet name="Risk Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
+    <sheet name="Gantt" sheetId="5" r:id="rId3"/>
+    <sheet name="Critical Path" sheetId="4" r:id="rId4"/>
+    <sheet name="Milestones at risk" sheetId="2" r:id="rId5"/>
+    <sheet name="Risk Register" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="171">
   <si>
     <t>Description</t>
   </si>
@@ -70,9 +73,6 @@
     <t>FTRR Gate Review</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Monday 14/10/2024</t>
   </si>
   <si>
@@ -169,9 +169,6 @@
     <t>PID Control Tune Test</t>
   </si>
   <si>
-    <t>Deliverable</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ID</t>
   </si>
   <si>
@@ -229,45 +226,12 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t>3.1.3</t>
-  </si>
-  <si>
-    <t>3.1.4</t>
-  </si>
-  <si>
-    <t>3.1.5</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>Risk Register Progress</t>
   </si>
   <si>
     <t>Signed Off</t>
   </si>
   <si>
-    <t>4.1.0</t>
-  </si>
-  <si>
     <t>Sebastien CB</t>
   </si>
   <si>
@@ -316,9 +280,6 @@
     <t xml:space="preserve">Signed off by </t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>Project files save Corruption/overwrite</t>
   </si>
   <si>
@@ -338,13 +299,268 @@
   </si>
   <si>
     <t>Get required 3D printing CAD drawings completed early</t>
+  </si>
+  <si>
+    <t>Backround research</t>
+  </si>
+  <si>
+    <t>Team Role Selection</t>
+  </si>
+  <si>
+    <t>Platform Selection</t>
+  </si>
+  <si>
+    <t>Budget set</t>
+  </si>
+  <si>
+    <t>Avionic selection</t>
+  </si>
+  <si>
+    <t>Conceptual Design</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Preliminary Design</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Detail Design</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Start Date</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>9 Days</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Initial Momentum Theory</t>
+  </si>
+  <si>
+    <t>Chaz Love</t>
+  </si>
+  <si>
+    <t>Gimbal CAD Conceptual Design Formulation</t>
+  </si>
+  <si>
+    <t>Airframe CAD Concept formulation</t>
+  </si>
+  <si>
+    <t>Materials research</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>12 Days</t>
+  </si>
+  <si>
+    <t>&lt;1 Day</t>
+  </si>
+  <si>
+    <t>22 Days</t>
+  </si>
+  <si>
+    <t>27 Days</t>
+  </si>
+  <si>
+    <t>28 Days</t>
+  </si>
+  <si>
+    <t>Requirements Breakdown</t>
+  </si>
+  <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>56 Days</t>
+  </si>
+  <si>
+    <t>Initial Finite element Analysis</t>
+  </si>
+  <si>
+    <t>S1, Week 2</t>
+  </si>
+  <si>
+    <t>S1, Week 1</t>
+  </si>
+  <si>
+    <t>S1, Week 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Product completion</t>
+  </si>
+  <si>
+    <t>Conceptual design completion</t>
+  </si>
+  <si>
+    <t>Detail Design Completion</t>
+  </si>
+  <si>
+    <t>Preliminary design Completion</t>
+  </si>
+  <si>
+    <t>Material Selection</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>week 6</t>
+  </si>
+  <si>
+    <t>week 7</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>task3</t>
+  </si>
+  <si>
+    <t>task4</t>
+  </si>
+  <si>
+    <t>task5</t>
+  </si>
+  <si>
+    <t>task6</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>task8</t>
+  </si>
+  <si>
+    <t>task9</t>
+  </si>
+  <si>
+    <t>task10</t>
+  </si>
+  <si>
+    <t>task11</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>task13</t>
+  </si>
+  <si>
+    <t>task14</t>
+  </si>
+  <si>
+    <t>task15</t>
+  </si>
+  <si>
+    <t>task16</t>
+  </si>
+  <si>
+    <t>task17</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>35 Days</t>
+  </si>
+  <si>
+    <t>63 Days</t>
+  </si>
+  <si>
+    <t>PID tune test</t>
+  </si>
+  <si>
+    <t>Lipo battery explodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">following WHO guidelines </t>
+  </si>
+  <si>
+    <t>arrange for alternate schedule for the affected weeks</t>
+  </si>
+  <si>
+    <t>Before scheduled meeting, ensure availabilty</t>
+  </si>
+  <si>
+    <t>leave plent of time to complete the tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge the Battery to resting charge, place in sandbag </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +589,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +645,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -594,10 +828,42 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -607,10 +873,150 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -620,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,9 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,35 +1048,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -681,55 +1060,22 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -747,6 +1093,156 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,528 +1592,1040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB687DE-7B59-445C-B2C7-8E146C5C6618}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="9" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" s="1" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="56">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="56">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="56">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56">
+        <v>1.7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56">
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56">
+        <v>1.9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="56">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="56">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E20" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45">
+        <v>3</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="44">
+        <v>3.4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="45">
+        <v>4</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="56">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="56">
+        <v>4.2</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="56">
+        <v>4.3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="56">
+        <v>4.7</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="56">
+        <v>4.8</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="58">
+        <v>5</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F38" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="23"/>
+      <c r="J38" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1625,128 +2633,304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F44DBF-4BDD-4EB1-A1E7-11D09DB80807}">
-  <dimension ref="B4:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B151C1EF-FC23-432B-B3F0-9925FAB164C9}">
+  <dimension ref="B1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="32" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="59">
+        <v>45560</v>
+      </c>
+      <c r="C3" s="67">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="60">
+        <v>45565</v>
+      </c>
+      <c r="C4" s="32">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
+        <v>45560</v>
+      </c>
+      <c r="C5" s="32">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="60">
+        <v>45565</v>
+      </c>
+      <c r="C6" s="32">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="60">
+        <v>45565</v>
+      </c>
+      <c r="C7" s="32">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="60">
+        <v>45565</v>
+      </c>
+      <c r="C8" s="32">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="60">
+        <v>45572</v>
+      </c>
+      <c r="C9" s="32">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="60">
+        <v>45572</v>
+      </c>
+      <c r="C10" s="32">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="60">
+        <v>45571</v>
+      </c>
+      <c r="C11" s="32">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
+        <v>45574</v>
+      </c>
+      <c r="C13" s="32">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>45571</v>
+      </c>
+      <c r="C14" s="32">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
+        <v>45572</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="61">
+        <v>45567</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="63">
+        <v>45590</v>
+      </c>
+      <c r="C20" s="28">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="41"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="63">
+        <v>45614</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="63">
+        <v>45689</v>
+      </c>
+      <c r="C28" s="28">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1754,11 +2938,613 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DBF967-63AF-4AB8-8DDA-84019F2E0224}">
+  <dimension ref="C1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="H23:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="77"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="77"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="77"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="77"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="77"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="77"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="77"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="77"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="77"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="77"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="77"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="77"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="77"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="77"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="81"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="68"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="68"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="68"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="68"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="68"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="68"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="68"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="68"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B461808B-2395-4519-98AF-7EA14238F171}">
+  <dimension ref="D3:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F44DBF-4BDD-4EB1-A1E7-11D09DB80807}">
+  <dimension ref="B5:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="83">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="83">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="83">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="83">
+        <v>4.3</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="83">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B009BBA-9CF0-42B9-8B30-C2F0D833DC46}">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,50 +3553,47 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="45">
+      <c r="C4" s="19">
         <v>45576</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5">
         <v>7</v>
@@ -1818,19 +3601,22 @@
       <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="22">
         <v>21</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="19">
+        <v>45576</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1838,23 +3624,22 @@
       <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="22">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="46">
+      <c r="C6" s="20">
         <v>45576</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
@@ -1862,21 +3647,24 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="23">
         <v>12</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="46">
+      <c r="C7" s="20">
         <v>45576</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1884,21 +3672,20 @@
       <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="23">
         <v>6</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="46">
+      <c r="C8" s="20">
         <v>45576</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
@@ -1906,21 +3693,20 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="24">
         <v>48</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="46">
+      <c r="C9" s="20">
         <v>45576</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -1928,21 +3714,22 @@
       <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="25">
         <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="20">
+        <v>45577</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4">
         <v>6</v>
@@ -1950,19 +3737,22 @@
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="25">
         <v>36</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="20">
+        <v>45577</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4">
         <v>8</v>
@@ -1970,15 +3760,37 @@
       <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="25">
         <v>32</v>
       </c>
-      <c r="H11" s="47" t="s">
-        <v>99</v>
+      <c r="H11" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="20">
+        <v>45577</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24">
+        <v>50</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Capstone\Administration\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Year 4\Capstone\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45806FA2-A4B8-479D-868B-E3A840D7A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39754B15-FDBE-4428-94E4-EBD825689F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="170">
   <si>
     <t>Description</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Monday 05/05/24</t>
-  </si>
-  <si>
-    <t>S2, Week 7</t>
   </si>
   <si>
     <t>S2, Week 8</t>
@@ -1026,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,7 +1221,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1594,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB687DE-7B59-445C-B2C7-8E146C5C6618}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
@@ -1629,7 +1625,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>43</v>
@@ -1646,23 +1642,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="37"/>
     </row>
@@ -1671,25 +1667,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="38"/>
     </row>
@@ -1698,25 +1694,25 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>36</v>
@@ -1727,25 +1723,25 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>36</v>
@@ -1756,25 +1752,25 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>36</v>
@@ -1785,25 +1781,25 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="38" t="s">
         <v>36</v>
@@ -1814,25 +1810,25 @@
         <v>1.6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>36</v>
@@ -1843,25 +1839,25 @@
         <v>1.7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>36</v>
@@ -1872,25 +1868,25 @@
         <v>1.8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>36</v>
@@ -1901,25 +1897,25 @@
         <v>1.9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>36</v>
@@ -1930,25 +1926,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>36</v>
@@ -1959,25 +1955,25 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>36</v>
@@ -1988,25 +1984,25 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>36</v>
@@ -2017,7 +2013,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>33</v>
@@ -2029,7 +2025,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>44</v>
@@ -2044,7 +2040,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>33</v>
@@ -2056,7 +2052,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>44</v>
@@ -2071,7 +2067,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
@@ -2083,7 +2079,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>45</v>
@@ -2098,19 +2094,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="26" t="s">
@@ -2123,7 +2119,7 @@
         <v>2.1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>32</v>
@@ -2135,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>44</v>
@@ -2147,22 +2143,22 @@
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="56">
-        <v>2.2000000000000002</v>
+        <v>4.3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>46</v>
@@ -2174,25 +2170,25 @@
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="56">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>39</v>
@@ -2200,211 +2196,211 @@
       <c r="J22" s="41"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+      <c r="B23" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45">
         <v>3</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E25" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="26" t="s">
+      <c r="G26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="56">
-        <v>3.1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="E27" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44">
-        <v>3.2</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="44">
+        <v>3.4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="G28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45">
-        <v>3.3</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44">
-        <v>3.4</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="39"/>
-    </row>
-    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45">
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="45">
         <v>4</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="56">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>94</v>
+      <c r="C29" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="E29" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="41"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="56">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>39</v>
@@ -2413,25 +2409,25 @@
     </row>
     <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="56">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>39</v>
@@ -2443,7 +2439,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>33</v>
@@ -2455,10 +2451,10 @@
         <v>38</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>39</v>
@@ -2470,7 +2466,7 @@
         <v>4.5</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>33</v>
@@ -2482,10 +2478,10 @@
         <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>39</v>
@@ -2497,7 +2493,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>33</v>
@@ -2509,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>53</v>
@@ -2524,7 +2520,7 @@
         <v>4.7</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>33</v>
@@ -2536,7 +2532,7 @@
         <v>37</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>54</v>
@@ -2551,7 +2547,7 @@
         <v>4.8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>33</v>
@@ -2563,7 +2559,7 @@
         <v>37</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>55</v>
@@ -2578,7 +2574,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>32</v>
@@ -2587,10 +2583,10 @@
         <v>25</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>55</v>
@@ -2605,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>32</v>
@@ -2617,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>50</v>
@@ -2648,10 +2644,10 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2764,7 +2760,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>12</v>
@@ -2941,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DBF967-63AF-4AB8-8DDA-84019F2E0224}">
   <dimension ref="C1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="H23:I23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,65 +2948,65 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
-      </c>
-      <c r="O1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+        <v>143</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="71"/>
+        <v>144</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -3020,15 +3016,15 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
-      <c r="O3" s="77"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="76"/>
+        <v>145</v>
+      </c>
+      <c r="D4" s="75"/>
       <c r="E4" s="69"/>
-      <c r="F4" s="71"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
@@ -3037,13 +3033,13 @@
       <c r="L4" s="69"/>
       <c r="M4" s="69"/>
       <c r="N4" s="69"/>
-      <c r="O4" s="77"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="76"/>
+        <v>146</v>
+      </c>
+      <c r="D5" s="75"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
@@ -3054,13 +3050,13 @@
       <c r="L5" s="69"/>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
-      <c r="O5" s="77"/>
+      <c r="O5" s="76"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="78"/>
+        <v>147</v>
+      </c>
+      <c r="D6" s="77"/>
       <c r="E6" s="70"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
@@ -3071,13 +3067,13 @@
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="77"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="78"/>
+        <v>148</v>
+      </c>
+      <c r="D7" s="77"/>
       <c r="E7" s="70"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
@@ -3088,13 +3084,13 @@
       <c r="L7" s="69"/>
       <c r="M7" s="69"/>
       <c r="N7" s="69"/>
-      <c r="O7" s="77"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="78"/>
+        <v>149</v>
+      </c>
+      <c r="D8" s="77"/>
       <c r="E8" s="70"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
@@ -3105,14 +3101,14 @@
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
-      <c r="O8" s="77"/>
+      <c r="O8" s="76"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="82"/>
+        <v>150</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="70"/>
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
@@ -3122,13 +3118,13 @@
       <c r="L9" s="69"/>
       <c r="M9" s="69"/>
       <c r="N9" s="69"/>
-      <c r="O9" s="77"/>
+      <c r="O9" s="76"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="78"/>
+        <v>151</v>
+      </c>
+      <c r="D10" s="77"/>
       <c r="E10" s="69"/>
       <c r="F10" s="70"/>
       <c r="G10" s="69"/>
@@ -3139,13 +3135,13 @@
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="69"/>
-      <c r="O10" s="77"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="78"/>
+        <v>152</v>
+      </c>
+      <c r="D11" s="77"/>
       <c r="E11" s="69"/>
       <c r="F11" s="70"/>
       <c r="G11" s="69"/>
@@ -3156,13 +3152,13 @@
       <c r="L11" s="69"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
-      <c r="O11" s="77"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="78"/>
+        <v>153</v>
+      </c>
+      <c r="D12" s="77"/>
       <c r="E12" s="69"/>
       <c r="F12" s="70"/>
       <c r="G12" s="69"/>
@@ -3173,13 +3169,13 @@
       <c r="L12" s="69"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69"/>
-      <c r="O12" s="77"/>
+      <c r="O12" s="76"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="78"/>
+        <v>154</v>
+      </c>
+      <c r="D13" s="77"/>
       <c r="E13" s="69"/>
       <c r="F13" s="70"/>
       <c r="G13" s="69"/>
@@ -3190,13 +3186,13 @@
       <c r="L13" s="69"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
-      <c r="O13" s="77"/>
+      <c r="O13" s="76"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="78"/>
+        <v>155</v>
+      </c>
+      <c r="D14" s="77"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
@@ -3207,13 +3203,13 @@
       <c r="L14" s="69"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
-      <c r="O14" s="77"/>
+      <c r="O14" s="76"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="78"/>
+        <v>156</v>
+      </c>
+      <c r="D15" s="77"/>
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
@@ -3224,13 +3220,13 @@
       <c r="L15" s="69"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69"/>
-      <c r="O15" s="77"/>
+      <c r="O15" s="76"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="78"/>
+        <v>157</v>
+      </c>
+      <c r="D16" s="77"/>
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
       <c r="G16" s="69"/>
@@ -3241,13 +3237,13 @@
       <c r="L16" s="69"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69"/>
-      <c r="O16" s="77"/>
+      <c r="O16" s="76"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="78"/>
+        <v>158</v>
+      </c>
+      <c r="D17" s="77"/>
       <c r="E17" s="69"/>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
@@ -3258,24 +3254,24 @@
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69"/>
-      <c r="O17" s="77"/>
+      <c r="O17" s="76"/>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="81"/>
+        <v>159</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="80"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="68"/>
@@ -3337,37 +3333,37 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3389,7 @@
   <sheetData>
     <row r="5" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>0</v>
@@ -3402,10 +3398,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,15 +3409,15 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="84" t="s">
+      <c r="E6" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3430,20 +3426,20 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>2.1</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3452,22 +3448,22 @@
       <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="84" t="s">
+      <c r="E8" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="83" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>2.2000000000000002</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>39</v>
@@ -3475,7 +3471,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <v>2.2999999999999998</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3490,11 +3486,11 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <v>4.0999999999999996</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>35</v>
@@ -3505,14 +3501,14 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <v>4.3</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>39</v>
@@ -3520,14 +3516,14 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <v>4.9000000000000004</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>39</v>
@@ -3543,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B009BBA-9CF0-42B9-8B30-C2F0D833DC46}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:J12"/>
     </sheetView>
   </sheetViews>
@@ -3560,31 +3556,31 @@
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="J3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,7 +3589,7 @@
         <v>45576</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5">
         <v>7</v>
@@ -3605,7 +3601,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3616,7 +3612,7 @@
         <v>45576</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -3628,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3639,7 +3635,7 @@
         <v>45576</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
@@ -3651,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -3664,7 +3660,7 @@
         <v>45576</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -3685,7 +3681,7 @@
         <v>45576</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
@@ -3706,7 +3702,7 @@
         <v>45576</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
@@ -3718,7 +3714,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -3729,7 +3725,7 @@
         <v>45577</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4">
         <v>6</v>
@@ -3741,7 +3737,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3752,7 +3748,7 @@
         <v>45577</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4">
         <v>8</v>
@@ -3764,7 +3760,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3775,7 +3771,7 @@
         <v>45577</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="4">
         <v>5</v>
@@ -3787,7 +3783,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Year 4\Capstone\Administration\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39754B15-FDBE-4428-94E4-EBD825689F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58F86C6-24A1-4BAE-B9F5-EF7C3474A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="5" xr2:uid="{DA57EB97-12E4-48A3-8EAF-7FD1826F846C}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="180">
   <si>
     <t>Description</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Team member Injury</t>
   </si>
   <si>
-    <t>don’t be clumsy you silly bitch</t>
-  </si>
-  <si>
     <t>HHTC room avialability</t>
   </si>
   <si>
@@ -551,6 +548,39 @@
   </si>
   <si>
     <t xml:space="preserve">Discharge the Battery to resting charge, place in sandbag </t>
+  </si>
+  <si>
+    <t>Redistribute the workloads of the affected member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribute workloads across the whole team to fill in for an ill team mate </t>
+  </si>
+  <si>
+    <t>Team members to take care during physical activity</t>
+  </si>
+  <si>
+    <t>Regularly Check Calenders</t>
+  </si>
+  <si>
+    <t>Order the Parts early for testing</t>
+  </si>
+  <si>
+    <t>Arrange for a back up Lipo for the TFE</t>
+  </si>
+  <si>
+    <t>Fill out a progree report for that week and all others</t>
+  </si>
+  <si>
+    <t>Reorder the parts or think of alternative solutions to the problem</t>
+  </si>
+  <si>
+    <t>GitHub has a feature to recover deleted files</t>
+  </si>
+  <si>
+    <t>Use Abaqus Student edition and to a limited 1D beam analysis instead. Or use Apps Anywhere</t>
+  </si>
+  <si>
+    <t>Syndey Jones and Harold Cohen On_x0002_Campus Libraries offer alternative 3D printers</t>
   </si>
 </sst>
 </file>
@@ -638,12 +668,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,8 +678,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1019,11 +1049,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,9 +1128,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,18 +1256,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,6 +1275,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB687DE-7B59-445C-B2C7-8E146C5C6618}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
@@ -1613,19 +1664,19 @@
         <v>42</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>43</v>
@@ -1638,394 +1689,394 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>85</v>
+      <c r="E4" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>1.2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>86</v>
+      <c r="E5" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="56">
+      <c r="B6" s="55">
         <v>1.3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>118</v>
+      <c r="E6" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>1.4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>87</v>
+      <c r="E7" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>89</v>
+      <c r="E8" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>1.6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>109</v>
+      <c r="E9" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>1.7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>108</v>
+      <c r="E10" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>1.8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>110</v>
+      <c r="E11" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>1.9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="52" t="s">
-        <v>130</v>
+      <c r="E12" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>121</v>
+      <c r="E13" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>1.1100000000000001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>1.1200000000000001</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="52" t="s">
-        <v>88</v>
+      <c r="E15" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <v>1.1299999999999999</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>44</v>
@@ -2033,53 +2084,53 @@
       <c r="I16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="45">
+      <c r="B17" s="44">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>45</v>
@@ -2087,51 +2138,51 @@
       <c r="I18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45">
+      <c r="B19" s="44">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56">
-        <v>2.1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>44</v>
@@ -2139,26 +2190,26 @@
       <c r="I20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56">
+      <c r="B21" s="55">
         <v>4.3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>46</v>
@@ -2166,26 +2217,26 @@
       <c r="I21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <v>2.2000000000000002</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>46</v>
@@ -2193,26 +2244,26 @@
       <c r="I22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>2.2999999999999998</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>47</v>
@@ -2220,51 +2271,51 @@
       <c r="I23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45">
+      <c r="B24" s="44">
         <v>3</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="55">
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56">
-        <v>3.1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>48</v>
@@ -2272,26 +2323,26 @@
       <c r="I25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44">
+      <c r="B26" s="43">
         <v>3.2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="47" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>49</v>
@@ -2299,53 +2350,53 @@
       <c r="I26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45">
+      <c r="B27" s="44">
         <v>3.3</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="43">
+        <v>3.4</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="44">
-        <v>3.4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>51</v>
@@ -2353,51 +2404,51 @@
       <c r="I28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45">
+      <c r="B29" s="44">
         <v>4</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>92</v>
+      <c r="C29" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="s">
+      <c r="G29" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="56">
+      <c r="B30" s="55">
         <v>4.0999999999999996</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>52</v>
@@ -2405,26 +2456,26 @@
       <c r="I30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="41"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="56">
+      <c r="B31" s="55">
         <v>4.2</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>58</v>
@@ -2432,26 +2483,26 @@
       <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56">
+      <c r="B32" s="55">
         <v>4.4000000000000004</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>57</v>
@@ -2459,26 +2510,26 @@
       <c r="I32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="41"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="56">
+      <c r="B33" s="55">
         <v>4.5</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="52" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>57</v>
@@ -2486,26 +2537,26 @@
       <c r="I33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="56">
+      <c r="B34" s="55">
         <v>4.5999999999999996</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="47" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>53</v>
@@ -2513,53 +2564,53 @@
       <c r="I34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="39"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="56">
+      <c r="B35" s="55">
         <v>4.7</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="55">
+        <v>4.8</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="56">
-        <v>4.8</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>55</v>
@@ -2567,26 +2618,26 @@
       <c r="I36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="39"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="56">
+      <c r="B37" s="55">
         <v>4.9000000000000004</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>55</v>
@@ -2594,34 +2645,34 @@
       <c r="I37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="41"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58">
+      <c r="B38" s="57">
         <v>5</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="30" t="s">
+      <c r="G38" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="42"/>
+      <c r="J38" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2644,114 +2695,114 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="59">
+      <c r="B3" s="58">
         <v>45560</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="66">
         <v>45589</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="B4" s="59">
         <v>45565</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>45589</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>45560</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>45560</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="60">
+      <c r="B6" s="59">
         <v>45565</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>45568</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="60">
+      <c r="B7" s="59">
         <v>45565</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>45566</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="60">
+      <c r="B8" s="59">
         <v>45565</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>45570</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>45572</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>45576</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
+      <c r="B10" s="59">
         <v>45572</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>45576</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>45571</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>45573</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>45574</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>45576</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="60">
+      <c r="B14" s="59">
         <v>45571</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>45575</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>45572</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>45576</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <v>45567</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2759,15 +2810,15 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2775,7 +2826,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2783,45 +2834,45 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="63">
+      <c r="B20" s="62">
         <v>45590</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>45613</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="12"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>45614</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>45641</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -2829,15 +2880,15 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2845,31 +2896,31 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <v>45689</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>45740</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2877,7 +2928,7 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2885,37 +2936,37 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2923,10 +2974,10 @@
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2948,369 +2999,369 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>139</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="67" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="68" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="75"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="76"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="75"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="76"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="68" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="75"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="76"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="68" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="75"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="75"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="76"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="68" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="75"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="76"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="68" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="75"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="76"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="68" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="75"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="76"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="68" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="75"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="76"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="68" t="s">
+      <c r="D12" s="76"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="75"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="68" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="75"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="76"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="68" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="76"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="68" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="76"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="68" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="76"/>
-    </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="80"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="79"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="68"/>
+      <c r="C19" s="67"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="68"/>
+      <c r="C20" s="67"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="68"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="68"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="68"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="68"/>
+      <c r="C24" s="67"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="68"/>
+      <c r="C25" s="67"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="68"/>
+      <c r="C26" s="67"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="68"/>
+      <c r="C27" s="67"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="68"/>
+      <c r="C28" s="67"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="68"/>
+      <c r="C29" s="67"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="68"/>
+      <c r="C30" s="67"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="68"/>
+      <c r="C31" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3333,37 +3384,37 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3388,19 +3439,19 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3409,15 +3460,15 @@
         <v>1.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3426,40 +3477,40 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="82" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>2.1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3471,10 +3522,10 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3486,11 +3537,11 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>163</v>
+      <c r="C11" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>35</v>
@@ -3501,10 +3552,10 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <v>4.3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3516,10 +3567,10 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82">
+      <c r="B13" s="81">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3539,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B009BBA-9CF0-42B9-8B30-C2F0D833DC46}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3600,7 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3573,18 +3624,20 @@
       <c r="G3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="86" t="s">
         <v>71</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="19">
         <v>45576</v>
       </c>
@@ -3592,22 +3645,28 @@
         <v>73</v>
       </c>
       <c r="E4" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="22">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="19">
         <v>45576</v>
       </c>
@@ -3618,19 +3677,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
       <c r="C6" s="20">
         <v>45576</v>
       </c>
@@ -3638,24 +3703,28 @@
         <v>74</v>
       </c>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="23">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="I6" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
       <c r="C7" s="20">
         <v>45576</v>
       </c>
@@ -3663,20 +3732,28 @@
         <v>75</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="23">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
       <c r="C8" s="20">
         <v>45576</v>
       </c>
@@ -3684,20 +3761,28 @@
         <v>76</v>
       </c>
       <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="88">
+        <v>12</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="24">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
       <c r="C9" s="20">
         <v>45576</v>
       </c>
@@ -3705,88 +3790,110 @@
         <v>78</v>
       </c>
       <c r="E9" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="88">
         <v>10</v>
       </c>
-      <c r="G9" s="25">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="I9" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
       <c r="C10" s="20">
         <v>45577</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4">
-        <v>6</v>
-      </c>
-      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+      <c r="G10" s="88">
+        <v>10</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+    </row>
+    <row r="11" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
       <c r="C11" s="20">
         <v>45577</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="24">
+        <v>15</v>
+      </c>
+      <c r="H11" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="25">
-        <v>32</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
       <c r="C12" s="20">
         <v>45577</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="88">
         <v>10</v>
       </c>
-      <c r="G12" s="24">
-        <v>50</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
